--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922F4D8-A1B3-2A46-9800-DDB3861B5A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F35D70-CC54-624C-90EE-713E56492B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1840" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -197,15 +197,6 @@
     <t>mediumblob</t>
   </si>
   <si>
-    <t>The smallest unit increment to which an attribute value is measured.</t>
-  </si>
-  <si>
-    <t>A succinct but comprehensive definition for the attribute or Domain Item</t>
-  </si>
-  <si>
-    <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name.</t>
-  </si>
-  <si>
     <t>The datatype or format of the entry values for an attribute; choose from drop down</t>
   </si>
   <si>
@@ -335,31 +326,40 @@
     <t>Indicates if the content of the data set is encoded in case-sensitive ASCII (yes/no)</t>
   </si>
   <si>
-    <t>A descriptive name associated with the Domain Item value; Default is to use the Domain Item Value; rows regarding attributes are 'colname'</t>
-  </si>
-  <si>
-    <t>The Domain Item value; the value in the table; rows regarding attributes are 'colname'</t>
-  </si>
-  <si>
-    <t>Anything entered here will be excluded from the mdJSON dictionary</t>
-  </si>
-  <si>
-    <t>The minimum range value permissible for this attribute; this may be a numeric or character.</t>
-  </si>
-  <si>
-    <t>The maximum range value permissible for this attribute; this may be a numeric or character.</t>
-  </si>
-  <si>
     <t>fieldWidth</t>
   </si>
   <si>
     <t>missingValue</t>
   </si>
   <si>
-    <t>The number of characters in the data field.</t>
-  </si>
-  <si>
-    <t>The code which represents missing data.</t>
+    <t>A succinct but comprehensive definition for the attribute or domain item</t>
+  </si>
+  <si>
+    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'colname'</t>
+  </si>
+  <si>
+    <t>The domain item value; the entry value in the table; rows regarding attributes are 'colname'</t>
+  </si>
+  <si>
+    <t>The smallest unit increment to which an attribute value is measured</t>
+  </si>
+  <si>
+    <t>The number of characters in the data field</t>
+  </si>
+  <si>
+    <t>The code which represents missing data</t>
+  </si>
+  <si>
+    <t>The minimum range value permissible for this attribute; this may be a numeric or character</t>
+  </si>
+  <si>
+    <t>The maximum range value permissible for this attribute; this may be a numeric or character</t>
+  </si>
+  <si>
+    <t>Anything entered here will be excluded from the mdJSON data dictionary</t>
+  </si>
+  <si>
+    <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
   </si>
 </sst>
 </file>
@@ -1228,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>47</v>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1329,10 +1329,10 @@
         <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>47</v>
@@ -1355,13 +1355,13 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1401,7 +1401,7 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1415,13 +1415,13 @@
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1435,13 +1435,13 @@
         <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1567,7 +1567,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1651,7 +1651,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,7 +1679,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,7 +1693,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,7 +1763,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1791,7 +1791,7 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1819,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1833,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1847,7 +1847,7 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1861,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1917,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1931,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1973,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1987,7 +1987,7 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -2015,13 +2015,13 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2035,13 +2035,13 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2055,13 +2055,13 @@
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2075,18 +2075,18 @@
         <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -2095,18 +2095,18 @@
         <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -2115,13 +2115,13 @@
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2135,13 +2135,13 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2155,13 +2155,13 @@
         <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2175,17 +2175,16 @@
         <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
         <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="chixlnJRWF+D2EYvDR3qXsyDAG58Pv6Bzj2kR0xVX8Lmk2j+I24aOIc7xVMkgXX+ZApee9ebwwI15fP/70lUNw==" saltValue="VjsPlsgShSuPuqnDtwzphQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2229,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2237,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2657,18 +2656,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2691,6 +2690,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2705,12 +2712,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F35D70-CC54-624C-90EE-713E56492B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10776" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -365,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,31 +1174,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1243,20 +1242,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:O587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O587"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{F53040D5-EB34-4145-A5D4-9C800B1A096B}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1264,13 +1263,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -1283,24 +1282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D55"/>
+    <sheetView topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2185,9 +2184,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:O55"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2195,13 +2194,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -2214,16 +2213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2239,202 +2238,202 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2656,18 +2655,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,14 +2689,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2712,4 +2703,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE25D4B-41DA-6F40-91B9-CF567AE9DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747"/>
+    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -178,9 +179,6 @@
     <t>character varying</t>
   </si>
   <si>
-    <t>colname</t>
-  </si>
-  <si>
     <t>domainItem_name</t>
   </si>
   <si>
@@ -334,12 +332,6 @@
     <t>A succinct but comprehensive definition for the attribute or domain item</t>
   </si>
   <si>
-    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'colname'</t>
-  </si>
-  <si>
-    <t>The domain item value; the entry value in the table; rows regarding attributes are 'colname'</t>
-  </si>
-  <si>
     <t>The smallest unit increment to which an attribute value is measured</t>
   </si>
   <si>
@@ -359,12 +351,21 @@
   </si>
   <si>
     <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
+  </si>
+  <si>
+    <t>dataElement</t>
+  </si>
+  <si>
+    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataElement'</t>
+  </si>
+  <si>
+    <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataElement'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1174,39 +1175,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1227,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>47</v>
@@ -1242,20 +1243,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:O587"/>
+  <autoFilter ref="A1:O587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1263,13 +1264,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -1282,32 +1283,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1328,10 +1329,10 @@
         <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>47</v>
@@ -1343,107 +1344,107 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1454,10 +1455,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1468,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1482,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1496,10 +1497,10 @@
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1510,24 +1511,24 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1538,10 +1539,10 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1552,10 +1553,10 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1566,10 +1567,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1580,10 +1581,10 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1594,10 +1595,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1608,10 +1609,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1622,24 +1623,24 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1650,10 +1651,10 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1664,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1678,10 +1679,10 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1692,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1706,10 +1707,10 @@
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1720,10 +1721,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1734,10 +1735,10 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1748,10 +1749,10 @@
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1762,10 +1763,10 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1776,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1790,10 +1791,10 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1804,10 +1805,10 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1818,10 +1819,10 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1832,10 +1833,10 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1846,10 +1847,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1860,10 +1861,10 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1874,10 +1875,10 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1902,10 +1903,10 @@
         <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1916,10 +1917,10 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1930,10 +1931,10 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1944,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1958,10 +1959,10 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1972,10 +1973,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1986,10 +1987,10 @@
         <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2000,193 +2001,193 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
         <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
       <c r="F53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>51</v>
       </c>
       <c r="F55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O55"/>
+  <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2194,13 +2195,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -2213,227 +2214,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2446,6 +2447,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2654,36 +2670,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2706,9 +2696,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE25D4B-41DA-6F40-91B9-CF567AE9DA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -353,19 +352,19 @@
     <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
   </si>
   <si>
-    <t>dataElement</t>
-  </si>
-  <si>
     <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataElement'</t>
   </si>
   <si>
     <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataElement'</t>
+  </si>
+  <si>
+    <t>dataField</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1175,31 +1174,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1243,20 +1242,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="16.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:O587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O587"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1264,13 +1263,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
@@ -1283,24 +1282,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1344,15 +1343,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>109</v>
@@ -1364,18 +1363,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -1384,18 +1383,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -1404,15 +1403,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -1424,15 +1423,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1444,7 +1443,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1906,7 +1905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2004,15 +2003,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
@@ -2024,15 +2023,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
@@ -2044,15 +2043,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>103</v>
@@ -2064,15 +2063,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
@@ -2084,15 +2083,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
         <v>104</v>
@@ -2104,15 +2103,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
         <v>105</v>
@@ -2124,15 +2123,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
@@ -2144,15 +2143,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>107</v>
@@ -2164,15 +2163,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -2185,9 +2184,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:O55"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -2195,13 +2194,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$62</xm:f>
           </x14:formula1>
@@ -2214,16 +2213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2239,202 +2238,202 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2456,12 +2455,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2670,6 +2663,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
@@ -2679,23 +2678,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2712,4 +2694,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1252,7 @@
   </sheetData>
   <autoFilter ref="A1:O587"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 H2:H1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
@@ -1273,7 +1273,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576 K2:K1048576 I1:I1048576</xm:sqref>
+          <xm:sqref>F2:F1048576 I1:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2446,12 +2446,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2664,15 +2661,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2697,18 +2706,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -352,13 +352,13 @@
     <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
   </si>
   <si>
-    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataElement'</t>
-  </si>
-  <si>
-    <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataElement'</t>
-  </si>
-  <si>
     <t>dataField</t>
+  </si>
+  <si>
+    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataField'</t>
+  </si>
+  <si>
+    <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataField'</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>109</v>
@@ -1368,13 +1368,13 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -1388,13 +1388,13 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -1408,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -1428,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -2008,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>98</v>
@@ -2028,10 +2028,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>58</v>
@@ -2048,10 +2048,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>103</v>
@@ -2068,10 +2068,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
@@ -2088,10 +2088,10 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
         <v>104</v>
@@ -2108,10 +2108,10 @@
         <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
         <v>105</v>
@@ -2128,10 +2128,10 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
@@ -2148,10 +2148,10 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
         <v>107</v>
@@ -2168,10 +2168,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -2452,6 +2452,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2660,15 +2669,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
@@ -2687,6 +2687,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2703,12 +2711,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747"/>
+    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="template_dictionary" sheetId="6" r:id="rId2"/>
+    <sheet name="template_dictionary" sheetId="7" r:id="rId2"/>
     <sheet name="validation_values" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1285,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2196,13 +2196,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>validation_values!$B$1:$B$2</xm:f>
+            <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>validation_values!$A$1:$A$62</xm:f>
+            <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -2446,21 +2446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2669,32 +2654,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2711,4 +2686,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -2,500 +2,383 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="540" windowWidth="26940" windowHeight="14580" tabRatio="747" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18588" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="template_dictionary" sheetId="7" r:id="rId2"/>
-    <sheet name="validation_values" sheetId="2" r:id="rId3"/>
+    <sheet name="template_dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="validation_values" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$O$587</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$O$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="113">
   <si>
+    <t>codeName</t>
+  </si>
+  <si>
+    <t>domainItem_name</t>
+  </si>
+  <si>
+    <t>domainItem_value</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>dataType</t>
+  </si>
+  <si>
+    <t>allowNull</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>unitsResolution</t>
+  </si>
+  <si>
+    <t>isCaseSensitive</t>
+  </si>
+  <si>
+    <t>fieldWidth</t>
+  </si>
+  <si>
+    <t>missingValue</t>
+  </si>
+  <si>
+    <t>minValue</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>dataField</t>
+  </si>
+  <si>
+    <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
+  </si>
+  <si>
+    <t>character varying</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataField'</t>
+  </si>
+  <si>
+    <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataField'</t>
+  </si>
+  <si>
+    <t>A succinct but comprehensive definition for the attribute or domain item</t>
+  </si>
+  <si>
+    <t>The datatype or format of the entry values for an attribute; choose from drop down</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>fixed length character strings</t>
+  </si>
+  <si>
+    <t>Variable length character strings</t>
+  </si>
+  <si>
+    <t>character large object</t>
+  </si>
+  <si>
+    <t>Character large object</t>
+  </si>
+  <si>
+    <t>national character</t>
+  </si>
+  <si>
+    <t>Fixed length national character strings (2 byte unicode)</t>
+  </si>
+  <si>
+    <t>national character varying</t>
+  </si>
+  <si>
+    <t>Variable length national character strings (2 byte unicode)</t>
+  </si>
+  <si>
+    <t>national character large object</t>
+  </si>
+  <si>
+    <t>National character (2 byte unicode) large object</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Variable string to maximum of 65k characters</t>
+  </si>
+  <si>
+    <t>tinytext</t>
+  </si>
+  <si>
+    <t>Variable string to maximum of 255 characters</t>
+  </si>
+  <si>
+    <t>mediumtext</t>
+  </si>
+  <si>
+    <t>Variable string to maximum of 16m characters</t>
+  </si>
+  <si>
+    <t>longtext</t>
+  </si>
+  <si>
+    <t>Variable string to maximum of 4g characters</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>Fixed length binary</t>
+  </si>
+  <si>
+    <t>binary varying</t>
+  </si>
+  <si>
+    <t>Variable length binary</t>
+  </si>
+  <si>
+    <t>binary large object</t>
+  </si>
+  <si>
+    <t>Binary large object to maximum of 65k bytes</t>
+  </si>
+  <si>
+    <t>mediumblob</t>
+  </si>
+  <si>
+    <t>Binary large object to maximum of 16m bytes</t>
+  </si>
+  <si>
+    <t>longblob</t>
+  </si>
+  <si>
+    <t>Binary large object to maximum of 4g bytes</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Integers number (+-2b)</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>Integer numbers (+-128)</t>
+  </si>
+  <si>
+    <t>mediumint</t>
+  </si>
+  <si>
+    <t>Integer numbers (+-16k)</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>Integer numbers (+-32k)</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>Integer numbers (+-1e27)</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Floating point numbers</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>Low precision floating point numbers</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>High precision floating point numbers</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Fixed precision  and scale decimal numbers</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Fixed precision  and scale decimal numbers (numeric alternate)</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Fixed length bit strings</t>
+  </si>
+  <si>
+    <t>bit varying</t>
+  </si>
+  <si>
+    <t>Variable length bit strings</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Calendar date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Clock time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Date and time</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Number of seconds since the unix epoch (1970-01-01t00:00:00 utc)</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>codeName</t>
-  </si>
-  <si>
-    <t>dataType</t>
-  </si>
-  <si>
-    <t>allowNull</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>binary large object</t>
-  </si>
-  <si>
-    <t>binary varying</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bit varying</t>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Time intervals</t>
+  </si>
+  <si>
+    <t>interval day</t>
+  </si>
+  <si>
+    <t>Day intervals</t>
+  </si>
+  <si>
+    <t>interval year</t>
+  </si>
+  <si>
+    <t>Year intervals</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Monetary value</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>character</t>
-  </si>
-  <si>
-    <t>character large object</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>double precision</t>
+    <t>Boolean value (yes/no)</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>Xml formatted data</t>
   </si>
   <si>
     <t>enum</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>interval</t>
-  </si>
-  <si>
-    <t>interval day</t>
-  </si>
-  <si>
-    <t>interval year</t>
-  </si>
-  <si>
-    <t>longblob</t>
-  </si>
-  <si>
-    <t>longtext</t>
+    <t>List of possible values: enum('a','b','c')</t>
+  </si>
+  <si>
+    <t>Indicates whether null values are permitted as the attribute value (yes/no)</t>
+  </si>
+  <si>
+    <t>A unit-of-measure for the attribute. E.g. 'meters', 'atmospheres', 'liters'; Unrestricted, though SI units are recommended; lowercase only</t>
+  </si>
+  <si>
+    <t>The smallest unit increment to which an attribute value is measured</t>
+  </si>
+  <si>
+    <t>Indicates if the content of the data set is encoded in case-sensitive ASCII (yes/no)</t>
+  </si>
+  <si>
+    <t>The number of characters in the data field</t>
+  </si>
+  <si>
+    <t>The code which represents missing data</t>
+  </si>
+  <si>
+    <t>The minimum range value permissible for this attribute; this may be a numeric or character</t>
+  </si>
+  <si>
+    <t>The maximum range value permissible for this attribute; this may be a numeric or character</t>
+  </si>
+  <si>
+    <t>Anything entered here will be excluded from the mdJSON data dictionary</t>
   </si>
   <si>
     <t>meadiumblob</t>
   </si>
   <si>
-    <t>mediumint</t>
-  </si>
-  <si>
-    <t>mediumtext</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>national character</t>
-  </si>
-  <si>
     <t>national characterlarge object</t>
   </si>
   <si>
-    <t>national character varying</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>smallint</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>tinytext</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>maxValue</t>
-  </si>
-  <si>
-    <t>minValue</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>unitsResolution</t>
-  </si>
-  <si>
-    <t>isCaseSensitive</t>
-  </si>
-  <si>
-    <t>character varying</t>
-  </si>
-  <si>
-    <t>domainItem_name</t>
-  </si>
-  <si>
-    <t>domainItem_value</t>
-  </si>
-  <si>
-    <t>fixed length character strings</t>
-  </si>
-  <si>
-    <t>national character large object</t>
-  </si>
-  <si>
-    <t>mediumblob</t>
-  </si>
-  <si>
-    <t>The datatype or format of the entry values for an attribute; choose from drop down</t>
-  </si>
-  <si>
-    <t>A unit-of-measure for the attribute. E.g. 'meters', 'atmospheres', 'liters'; Unrestricted, though SI units are recommended; lowercase only</t>
-  </si>
-  <si>
-    <t>Variable length character strings</t>
-  </si>
-  <si>
-    <t>Character large object</t>
-  </si>
-  <si>
-    <t>Fixed length national character strings (2 byte unicode)</t>
-  </si>
-  <si>
-    <t>Variable length national character strings (2 byte unicode)</t>
-  </si>
-  <si>
-    <t>National character (2 byte unicode) large object</t>
-  </si>
-  <si>
-    <t>Variable string to maximum of 65k characters</t>
-  </si>
-  <si>
-    <t>Variable string to maximum of 255 characters</t>
-  </si>
-  <si>
-    <t>Variable string to maximum of 16m characters</t>
-  </si>
-  <si>
-    <t>Variable string to maximum of 4g characters</t>
-  </si>
-  <si>
-    <t>Fixed length binary</t>
-  </si>
-  <si>
-    <t>Variable length binary</t>
-  </si>
-  <si>
-    <t>Binary large object to maximum of 65k bytes</t>
-  </si>
-  <si>
-    <t>Binary large object to maximum of 16m bytes</t>
-  </si>
-  <si>
-    <t>Binary large object to maximum of 4g bytes</t>
-  </si>
-  <si>
-    <t>Integers number (+-2b)</t>
-  </si>
-  <si>
-    <t>Integer numbers (+-128)</t>
-  </si>
-  <si>
-    <t>Integer numbers (+-16k)</t>
-  </si>
-  <si>
-    <t>Integer numbers (+-32k)</t>
-  </si>
-  <si>
-    <t>Integer numbers (+-1e27)</t>
-  </si>
-  <si>
-    <t>Floating point numbers</t>
-  </si>
-  <si>
-    <t>Low precision floating point numbers</t>
-  </si>
-  <si>
-    <t>High precision floating point numbers</t>
-  </si>
-  <si>
-    <t>Fixed precision  and scale decimal numbers</t>
-  </si>
-  <si>
-    <t>Fixed precision  and scale decimal numbers (numeric alternate)</t>
-  </si>
-  <si>
-    <t>Fixed length bit strings</t>
-  </si>
-  <si>
-    <t>Variable length bit strings</t>
-  </si>
-  <si>
-    <t>Calendar date</t>
-  </si>
-  <si>
-    <t>Clock time</t>
-  </si>
-  <si>
-    <t>Date and time</t>
-  </si>
-  <si>
-    <t>Number of seconds since the unix epoch (1970-01-01t00:00:00 utc)</t>
-  </si>
-  <si>
-    <t>Time intervals</t>
-  </si>
-  <si>
-    <t>Day intervals</t>
-  </si>
-  <si>
-    <t>Year intervals</t>
-  </si>
-  <si>
-    <t>Monetary value</t>
-  </si>
-  <si>
-    <t>Xml formatted data</t>
-  </si>
-  <si>
-    <t>List of possible values: enum('a','b','c')</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Boolean value (yes/no)</t>
-  </si>
-  <si>
-    <t>Indicates whether null values are permitted as the attribute value (yes/no)</t>
-  </si>
-  <si>
-    <t>Indicates if the content of the data set is encoded in case-sensitive ASCII (yes/no)</t>
-  </si>
-  <si>
-    <t>fieldWidth</t>
-  </si>
-  <si>
-    <t>missingValue</t>
-  </si>
-  <si>
-    <t>A succinct but comprehensive definition for the attribute or domain item</t>
-  </si>
-  <si>
-    <t>The smallest unit increment to which an attribute value is measured</t>
-  </si>
-  <si>
-    <t>The number of characters in the data field</t>
-  </si>
-  <si>
-    <t>The code which represents missing data</t>
-  </si>
-  <si>
-    <t>The minimum range value permissible for this attribute; this may be a numeric or character</t>
-  </si>
-  <si>
-    <t>The maximum range value permissible for this attribute; this may be a numeric or character</t>
-  </si>
-  <si>
-    <t>Anything entered here will be excluded from the mdJSON data dictionary</t>
-  </si>
-  <si>
-    <t>Attribute name; the code used to identify this attribute; most often this will be the table or spreadsheet column name</t>
-  </si>
-  <si>
-    <t>dataField</t>
-  </si>
-  <si>
-    <t>A descriptive name associated with the domain item value; Default is to use the domain item value; rows regarding attributes are 'dataField'</t>
-  </si>
-  <si>
-    <t>The domain item value; the entry value in the table; rows regarding attributes are 'dataField'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,189 +391,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -698,206 +415,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1175,105 +704,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N550"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="469" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O587"/>
+  <autoFilter ref="A1:N1"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>validation_values!$A$1:$A$62</xm:f>
+            <xm:f>validation_values!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>validation_values!$A$1:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>validation_values!$B$1:$B$2</xm:f>
+            <xm:f>validation_values!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576 I1:I1048576</xm:sqref>
+          <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1285,649 +815,657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="9" max="11" width="9" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>91</v>
@@ -1935,276 +1473,270 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
         <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
         <v>22</v>
-      </c>
-      <c r="F51" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O55"/>
+  <autoFilter ref="A1:N1"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K55">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>validation_values!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>E2:F55 I2:K55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2217,237 +1749,235 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zB3oWzAU/8MADTHlL0nRLD+fUCY7I2ltSPkZjMeWLB8ST7OFSk4p9yF3gur7M2NeQMrBGMfbRT01rDXNFPYjEw==" saltValue="tMOGjp0OYLqKChUf49abnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
     <xsd:import namespace="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
     <xsd:element name="properties">
@@ -2467,6 +1997,7 @@
                 <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2552,6 +2083,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2670,7 +2206,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2689,7 +2225,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -2697,18 +2233,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hvincelette\Documents\GitHub\mdJSONdictio\inst\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862B8B76-4F96-4223-9048-123724587780}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18588" windowHeight="7392"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,32 +704,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,12 +774,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -787,19 +788,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$3</xm:f>
           </x14:formula1>
@@ -812,32 +813,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -921,7 +922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -941,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -961,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -981,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -995,7 +996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1722,9 +1723,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K55">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K55" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1732,7 +1733,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
@@ -1745,16 +1746,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1770,202 +1771,202 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>112</v>
       </c>

--- a/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{862B8B76-4F96-4223-9048-123724587780}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A421C4A-2935-4D2B-A18C-E3EA437BA890}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$N$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -709,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,8 +817,8 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -979,7 +979,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,21 +1723,37 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K55" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <autoFilter ref="A1:N55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H55 K2:K55" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{DE0511CF-9A53-4E3F-9F75-38889D22258D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:N1" xr:uid="{1FDB93DE-3305-462C-8BE1-CEA135187086}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>validation_values!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F55 I2:K55</xm:sqref>
+          <xm:sqref>K2:K55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{45E1123D-C33C-4894-AA7B-44C990984ECB}">
+          <x14:formula1>
+            <xm:f>validation_values!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B90E822C-85D2-4404-9E4F-F14E8E983C5E}">
+          <x14:formula1>
+            <xm:f>validation_values!$A$1:$A$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1977,6 +1993,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2191,22 +2222,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2223,29 +2264,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>